--- a/data/trans_orig/Q19A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q19A-Estudios-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3179671339138381</v>
+        <v>0.3170430944377078</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2442569301605071</v>
+        <v>0.249886027996796</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2160245657766316</v>
+        <v>0.2176905376015729</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2174949302024994</v>
+        <v>0.2183374766289393</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3154868659400874</v>
+        <v>0.316784892977749</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4081312138252634</v>
+        <v>0.4129947187019306</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3083964748669727</v>
+        <v>0.308041329819404</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2714974522158306</v>
+        <v>0.2724556981073147</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3295302173401035</v>
+        <v>0.3335041097973891</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3553571095976468</v>
+        <v>0.3544454605100491</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2838966688753236</v>
+        <v>0.2798244702545125</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2662065451602211</v>
+        <v>0.2663542880631318</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4851423158195165</v>
+        <v>0.481496981579762</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3641346099706787</v>
+        <v>0.3686601405079399</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.323423025711731</v>
+        <v>0.3214292009374515</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3530064360236369</v>
+        <v>0.350083760652853</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4242055517424706</v>
+        <v>0.4338520544622113</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5521264817427065</v>
+        <v>0.5417831515342862</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4322152588641003</v>
+        <v>0.4334647767649099</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.517890712028063</v>
+        <v>0.4727748853461322</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4293264101890065</v>
+        <v>0.4339111220586305</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.450813355205185</v>
+        <v>0.4532989556923836</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3679823018522488</v>
+        <v>0.3615655472917071</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3949771274390254</v>
+        <v>0.3999517159676933</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>0.6158738469007458</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.56910023434207</v>
+        <v>0.5691002343420701</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.5359948515751672</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.392293086034688</v>
+        <v>0.3934638675603787</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3877630112245716</v>
+        <v>0.384571163204318</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4621530261425936</v>
+        <v>0.4625628884867053</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.373442072277211</v>
+        <v>0.3785904747250204</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5612293967213546</v>
+        <v>0.562003330742232</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6237787970776502</v>
+        <v>0.6211513598013054</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5696390859842341</v>
+        <v>0.5721475574569156</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5203519178439769</v>
+        <v>0.5200690049636538</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4922902212273331</v>
+        <v>0.4946135492853778</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5067749285695657</v>
+        <v>0.5168079348342819</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.5275417337832092</v>
+        <v>0.5274952288109669</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.4585540717710095</v>
+        <v>0.4547330318178678</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5291757016416061</v>
+        <v>0.5265521490464578</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4846628512985226</v>
+        <v>0.4856102746322036</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.569234574183075</v>
+        <v>0.5680144709721041</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4938903982743667</v>
+        <v>0.4993146301678264</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7166391338183176</v>
+        <v>0.7127526077417647</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.813433232088795</v>
+        <v>0.8129839059163293</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6735464947759697</v>
+        <v>0.6697884292960116</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6337431854066686</v>
+        <v>0.6464269082448397</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5963486908912718</v>
+        <v>0.5941723848660145</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6139231851420585</v>
+        <v>0.6220684829167259</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5997770563815826</v>
+        <v>0.5982078461682653</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.5413569464337694</v>
+        <v>0.5403559930387853</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>0.6576763442875718</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.6302868151091544</v>
+        <v>0.6302868151091543</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3677941116969266</v>
+        <v>0.3617996249673081</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5118646647012614</v>
+        <v>0.5007887111940036</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.546755326562273</v>
+        <v>0.5406522187466604</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4536862573239877</v>
+        <v>0.4626066550062746</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5003842097663657</v>
+        <v>0.5069023148326535</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.540004499748296</v>
+        <v>0.551036954389977</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5645459432301788</v>
+        <v>0.5785917741267246</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.6573867082523092</v>
+        <v>0.6624027884602403</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4536882542259051</v>
+        <v>0.44859056664075</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.5551598227632349</v>
+        <v>0.555463895274915</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.5789357729844314</v>
+        <v>0.5821778514316215</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.5782031887893632</v>
+        <v>0.5794182057437525</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5103976343171187</v>
+        <v>0.5030980317529674</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7746940002242674</v>
+        <v>0.7685727061140067</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7959110451930368</v>
+        <v>0.788020464790809</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5901228674806558</v>
+        <v>0.5985298461608293</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7627689526184238</v>
+        <v>0.7614647585547349</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7944372270858262</v>
+        <v>0.7760993093328445</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8060454810396219</v>
+        <v>0.8050865400995315</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8263130986204696</v>
+        <v>0.8200783759643224</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.583808966074968</v>
+        <v>0.5919416882137473</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7427163933425489</v>
+        <v>0.7334602830840274</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7512115029889818</v>
+        <v>0.7617619637975268</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.6917053856907751</v>
+        <v>0.6880754706299408</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>0.5163804019516743</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.4866883737366442</v>
+        <v>0.4866883737366441</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3852247698073394</v>
+        <v>0.3863034340893119</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3807576066645784</v>
+        <v>0.3828292609172886</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4413159979937763</v>
+        <v>0.4431248955859147</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3846647401476428</v>
+        <v>0.3819944079908705</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4823612136698771</v>
+        <v>0.4830401508787655</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5570123610907328</v>
+        <v>0.5574834456882795</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5142515415940658</v>
+        <v>0.5130315286659564</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5128721259204984</v>
+        <v>0.5143538363161024</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4453477530337714</v>
+        <v>0.4463367074950827</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4829682113059601</v>
+        <v>0.4820995039326868</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4906274487239368</v>
+        <v>0.4885390335783122</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4602826601496437</v>
+        <v>0.4586938568934208</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4731366961014443</v>
+        <v>0.4732448610885562</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4555171048902706</v>
+        <v>0.4611227909051586</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5230955984521051</v>
+        <v>0.5195350963873915</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4721009183019311</v>
+        <v>0.463371620615613</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5699237079766001</v>
+        <v>0.5817098416427871</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6757623185073764</v>
+        <v>0.6652985146442048</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5927091045855828</v>
+        <v>0.5915803123399073</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6009335853313822</v>
+        <v>0.6000785499684339</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.512411686695326</v>
+        <v>0.5092155588206941</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5513102981604694</v>
+        <v>0.5534212714275926</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5464931784249509</v>
+        <v>0.5456474267490956</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.5198902912100932</v>
+        <v>0.5186772731280752</v>
       </c>
     </row>
     <row r="16">
